--- a/Materials/Plan.xlsx
+++ b/Materials/Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cayman/Documents/Print/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cayman/GitHub/PTEKiller/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC15323-AA1F-8E4C-BB3F-38404E5F958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15104D9A-115D-F741-964E-60880AD5CBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="28600" windowHeight="19720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6360" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学习计划进度表" sheetId="1" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2204,16 +2204,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,6 +2240,90 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2252,89 +2336,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2353,9 +2356,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3924,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
@@ -3942,25 +3942,25 @@
   <sheetData>
     <row r="1" spans="2:20" ht="6" customHeight="1"/>
     <row r="2" spans="2:20" ht="46" customHeight="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
     </row>
     <row r="3" spans="2:20" ht="12" customHeight="1">
       <c r="B3" s="16"/>
@@ -3975,17 +3975,17 @@
       <c r="S3" s="16"/>
     </row>
     <row r="4" spans="2:20" ht="33" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71">
         <v>45808</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="J4" s="35" t="s">
         <v>1</v>
       </c>
@@ -4015,18 +4015,18 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="33" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="44">
+      <c r="C5" s="70"/>
+      <c r="D5" s="72">
         <f ca="1">DATEDIF(TODAY(),D4,"d")</f>
         <v>89</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="J5" s="36" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="Q5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="63" t="s">
+      <c r="R5" s="61" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4081,14 +4081,14 @@
       <c r="Q6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="64"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="2:20" ht="29" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="20">
         <v>2025</v>
       </c>
@@ -4125,28 +4125,28 @@
       <c r="Q7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="64"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="2:20" ht="29" customHeight="1">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="59" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="36" t="s">
@@ -4173,25 +4173,25 @@
       <c r="Q8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="65"/>
+      <c r="R8" s="63"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1">
-      <c r="B9" s="57"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="62"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="60"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="2:20" ht="29" customHeight="1">
@@ -4223,19 +4223,19 @@
         <f>IF(G10&lt;&gt;"",G10+1,IF(WEEKDAY(DATE($E$7,$G$7,1),2)=7,1,""))</f>
         <v>2</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="66" t="s">
+      <c r="R10" s="64" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4268,19 +4268,19 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
       <c r="Q11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="67"/>
+      <c r="R11" s="65"/>
     </row>
     <row r="12" spans="2:20" ht="29" customHeight="1">
       <c r="B12" s="23">
@@ -4335,7 +4335,7 @@
       <c r="Q12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="68" t="s">
+      <c r="R12" s="66" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
       <c r="Q13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="69"/>
+      <c r="R13" s="67"/>
     </row>
     <row r="14" spans="2:20" ht="29" customHeight="1">
       <c r="B14" s="23">
@@ -4447,7 +4447,7 @@
       <c r="Q14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="70"/>
+      <c r="R14" s="68"/>
     </row>
     <row r="15" spans="2:20" ht="29" customHeight="1">
       <c r="B15" s="26">
@@ -4508,15 +4508,15 @@
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1">
       <c r="B16" s="16"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="2:21" ht="29" customHeight="1">
       <c r="B17" s="50" t="s">
@@ -4552,7 +4552,7 @@
       <c r="Q17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4600,16 +4600,16 @@
       <c r="Q18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="72"/>
+      <c r="R18" s="42"/>
     </row>
     <row r="19" spans="2:21" ht="29" customHeight="1">
       <c r="B19" s="32">
         <v>1</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="33">
         <v>171</v>
       </c>
@@ -4621,17 +4621,17 @@
         <v>171</v>
       </c>
       <c r="H19" s="32"/>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
       <c r="Q19" s="39" t="s">
         <v>49</v>
       </c>
@@ -4641,10 +4641,10 @@
       <c r="B20" s="32">
         <v>2</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="33">
         <v>273</v>
       </c>
@@ -4671,10 +4671,10 @@
       <c r="B21" s="32">
         <v>3</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="53"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="33">
         <v>187</v>
       </c>
@@ -4701,10 +4701,10 @@
       <c r="B22" s="32">
         <v>4</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="33">
         <v>96</v>
       </c>
@@ -4731,10 +4731,10 @@
       <c r="B23" s="32">
         <v>5</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="33">
         <v>226</v>
       </c>
@@ -4760,10 +4760,10 @@
       <c r="B24" s="32">
         <v>6</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="33">
         <v>77</v>
       </c>
@@ -4789,10 +4789,10 @@
       <c r="B25" s="32">
         <v>7</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="33">
         <v>53</v>
       </c>
@@ -4818,10 +4818,10 @@
       <c r="B26" s="32">
         <v>8</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="33">
         <v>190</v>
       </c>
@@ -4847,10 +4847,10 @@
       <c r="B27" s="32">
         <v>9</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="33">
         <v>223</v>
       </c>
@@ -4876,10 +4876,10 @@
       <c r="B28" s="32">
         <v>10</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="33">
         <v>156</v>
       </c>
@@ -4905,10 +4905,10 @@
       <c r="B29" s="32">
         <v>11</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="33">
         <v>87</v>
       </c>
@@ -4936,10 +4936,10 @@
       <c r="B30" s="32">
         <v>12</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="33">
         <v>334</v>
       </c>
@@ -5165,6 +5165,27 @@
     <row r="67" s="16" customFormat="1" ht="22" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J16:R16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:P19"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="B8:B9"/>
@@ -5181,27 +5202,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J16:R16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="R5:R8"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:H15">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5228,7 +5228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XER21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -5250,11 +5250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="100" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:25">
@@ -5349,9 +5349,9 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="14" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
     </row>
     <row r="8" spans="1:25" ht="96">
       <c r="A8" s="12" t="s">
@@ -5382,13 +5382,13 @@
       <c r="A10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="73" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5396,9 +5396,9 @@
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="1:25" ht="108" customHeight="1">
       <c r="A12" s="12" t="s">
@@ -5426,9 +5426,9 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="14" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:25" ht="110" customHeight="1">
       <c r="A15" s="7" t="s">
